--- a/excel/逃离雅科夫-Mods数量统计.xlsx
+++ b/excel/逃离雅科夫-Mods数量统计.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
-  </bookViews>
+  <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="ModCounts" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -22,7 +17,7 @@
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,9 +48,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -202,6 +197,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -236,6 +232,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -270,20 +267,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -405,7 +398,46 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
@@ -430,17 +462,17 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Game</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>ModCount</t>
         </is>

--- a/excel/逃离雅科夫-Mods数量统计.xlsx
+++ b/excel/逃离雅科夫-Mods数量统计.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
     <sheet name="ModCounts" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
-      <sz val="12"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -41,16 +49,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -197,7 +208,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -232,7 +242,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -267,16 +276,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -398,46 +411,7 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
@@ -462,34 +436,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Game</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>ModCount</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>2025/11/11</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>逃离雅科夫</t>
         </is>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="2" t="n">
         <v>1035</v>
       </c>
     </row>
